--- a/7-6 水滴保对接/产品配置表.xlsx
+++ b/7-6 水滴保对接/产品配置表.xlsx
@@ -148,10 +148,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,7 +460,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -493,10 +493,10 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -507,8 +507,8 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -517,8 +517,8 @@
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -527,8 +527,8 @@
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
@@ -537,8 +537,8 @@
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
